--- a/Exported CSV/SalesBudget.xlsx
+++ b/Exported CSV/SalesBudget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\720350\Desktop\Data Analyst Portfolio Data\Sales\3 - Cleansing &amp; Transformation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rxmed\Documents\GitHub\Data Analyst Dashboard Project\Exported CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB0F426-EAE3-4CAE-A364-B68B0189A02A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA462C6-0F13-4923-8F91-A7B54D7429DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="1995" windowWidth="15900" windowHeight="14805" xr2:uid="{5CABF058-C44E-4B4C-A322-6CA47C838A4D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{5CABF058-C44E-4B4C-A322-6CA47C838A4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +441,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>43831</v>
+        <v>44927</v>
       </c>
       <c r="B2" s="2">
         <v>800000</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>43862</v>
+        <v>44958</v>
       </c>
       <c r="B3" s="2">
         <v>800000</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>43891</v>
+        <v>44986</v>
       </c>
       <c r="B4" s="2">
         <v>1000000</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>43922</v>
+        <v>45017</v>
       </c>
       <c r="B5" s="2">
         <v>1000000</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>43952</v>
+        <v>45047</v>
       </c>
       <c r="B6" s="2">
         <v>1100000</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>43983</v>
+        <v>45078</v>
       </c>
       <c r="B7" s="2">
         <v>1100000</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44013</v>
+        <v>45108</v>
       </c>
       <c r="B8" s="2">
         <v>1500000</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44044</v>
+        <v>45139</v>
       </c>
       <c r="B9" s="2">
         <v>1500000</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44075</v>
+        <v>45170</v>
       </c>
       <c r="B10" s="2">
         <v>1500000</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44105</v>
+        <v>45200</v>
       </c>
       <c r="B11" s="2">
         <v>1500000</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44136</v>
+        <v>45231</v>
       </c>
       <c r="B12" s="2">
         <v>1500000</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>44166</v>
+        <v>45261</v>
       </c>
       <c r="B13" s="2">
         <v>2000000</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44197</v>
+        <v>45292</v>
       </c>
       <c r="B14" s="2">
         <v>800000</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>44228</v>
+        <v>45323</v>
       </c>
       <c r="B15" s="2">
         <v>800000</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44256</v>
+        <v>45352</v>
       </c>
       <c r="B16" s="2">
         <v>1000000</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44287</v>
+        <v>45383</v>
       </c>
       <c r="B17" s="2">
         <v>1000000</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>44317</v>
+        <v>45413</v>
       </c>
       <c r="B18" s="2">
         <v>1100000</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>44348</v>
+        <v>45444</v>
       </c>
       <c r="B19" s="2">
         <v>1100000</v>
